--- a/set_transformer/classification_model/predictions.xlsx
+++ b/set_transformer/classification_model/predictions.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -7280,7 +7280,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -7688,7 +7688,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -7722,7 +7722,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -7824,7 +7824,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -8147,7 +8147,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -8300,7 +8300,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -8334,7 +8334,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -8810,7 +8810,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8912,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -9048,7 +9048,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -9320,7 +9320,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -9473,7 +9473,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -9524,7 +9524,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -9694,7 +9694,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -9762,7 +9762,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -9949,7 +9949,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -10034,7 +10034,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -10102,7 +10102,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -10578,7 +10578,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -10646,7 +10646,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -10663,7 +10663,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -10884,7 +10884,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -10952,7 +10952,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10986,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -11003,7 +11003,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -11037,7 +11037,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -11224,7 +11224,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -11343,7 +11343,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -11479,7 +11479,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -11513,7 +11513,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -11530,7 +11530,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -11632,7 +11632,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -11734,7 +11734,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -11887,7 +11887,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -11904,7 +11904,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12125,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -12159,7 +12159,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -12193,7 +12193,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -12227,7 +12227,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -12295,7 +12295,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -12380,7 +12380,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12414,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -12448,7 +12448,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -12550,7 +12550,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -12652,7 +12652,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -12754,7 +12754,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -12805,7 +12805,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -12822,7 +12822,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -12839,7 +12839,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -12924,7 +12924,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -12941,7 +12941,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -12992,7 +12992,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -13264,7 +13264,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -13332,7 +13332,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13383,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -13485,7 +13485,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13536,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -13570,7 +13570,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -13587,7 +13587,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -13621,7 +13621,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -13638,7 +13638,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -13791,7 +13791,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -13825,7 +13825,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -13876,7 +13876,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -13927,7 +13927,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -13978,7 +13978,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -13995,7 +13995,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14046,7 +14046,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -14114,7 +14114,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -14131,7 +14131,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -14148,7 +14148,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14182,7 +14182,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14199,7 +14199,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14216,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -14267,7 +14267,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -14284,7 +14284,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14318,7 +14318,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -14386,7 +14386,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -14420,7 +14420,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14522,7 +14522,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14539,7 +14539,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14556,7 +14556,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14641,7 +14641,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14794,7 +14794,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -14811,7 +14811,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14828,7 +14828,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -14879,7 +14879,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -14896,7 +14896,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -14913,7 +14913,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -14981,7 +14981,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -14998,7 +14998,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -15032,7 +15032,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -15117,7 +15117,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -15202,7 +15202,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -15372,7 +15372,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -15491,7 +15491,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -15508,7 +15508,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -15559,7 +15559,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -15644,7 +15644,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -15695,7 +15695,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -15763,7 +15763,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -15831,7 +15831,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -15899,7 +15899,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -15916,7 +15916,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -15984,7 +15984,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -16052,7 +16052,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -16137,7 +16137,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -16205,7 +16205,7 @@
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -16239,7 +16239,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -16307,7 +16307,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -16392,7 +16392,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -16579,7 +16579,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16596,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -16715,7 +16715,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -16749,7 +16749,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -16783,7 +16783,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -16970,7 +16970,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17004,7 +17004,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -17072,7 +17072,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17089,7 +17089,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -17174,7 +17174,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17191,7 +17191,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -17225,7 +17225,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17242,7 +17242,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -17327,7 +17327,7 @@
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -17361,7 +17361,7 @@
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17463,7 +17463,7 @@
       </c>
       <c r="C1002" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17480,7 +17480,7 @@
       </c>
       <c r="C1003" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="C1004" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17531,7 +17531,7 @@
       </c>
       <c r="C1006" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17565,7 +17565,7 @@
       </c>
       <c r="C1008" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -17582,7 +17582,7 @@
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -17599,7 +17599,7 @@
       </c>
       <c r="C1010" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="C1012" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17650,7 +17650,7 @@
       </c>
       <c r="C1013" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -17667,7 +17667,7 @@
       </c>
       <c r="C1014" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17684,7 +17684,7 @@
       </c>
       <c r="C1015" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -17701,7 +17701,7 @@
       </c>
       <c r="C1016" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17735,7 +17735,7 @@
       </c>
       <c r="C1018" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -17752,7 +17752,7 @@
       </c>
       <c r="C1019" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -17871,7 +17871,7 @@
       </c>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -17939,7 +17939,7 @@
       </c>
       <c r="C1030" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -17956,7 +17956,7 @@
       </c>
       <c r="C1031" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -17973,7 +17973,7 @@
       </c>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -18092,7 +18092,7 @@
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -18109,7 +18109,7 @@
       </c>
       <c r="C1040" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -18143,7 +18143,7 @@
       </c>
       <c r="C1042" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -18211,7 +18211,7 @@
       </c>
       <c r="C1046" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -18228,7 +18228,7 @@
       </c>
       <c r="C1047" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -18262,7 +18262,7 @@
       </c>
       <c r="C1049" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -18296,7 +18296,7 @@
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -18347,7 +18347,7 @@
       </c>
       <c r="C1054" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -18364,7 +18364,7 @@
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -18398,7 +18398,7 @@
       </c>
       <c r="C1057" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -18415,7 +18415,7 @@
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -18449,7 +18449,7 @@
       </c>
       <c r="C1060" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -18568,7 +18568,7 @@
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -18602,7 +18602,7 @@
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -18619,7 +18619,7 @@
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -18653,7 +18653,7 @@
       </c>
       <c r="C1072" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -18670,7 +18670,7 @@
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -18687,7 +18687,7 @@
       </c>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -18738,7 +18738,7 @@
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -18772,7 +18772,7 @@
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -18840,7 +18840,7 @@
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -18874,7 +18874,7 @@
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -18908,7 +18908,7 @@
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -18942,7 +18942,7 @@
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -18976,7 +18976,7 @@
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -18993,7 +18993,7 @@
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -19010,7 +19010,7 @@
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -19027,7 +19027,7 @@
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -19044,7 +19044,7 @@
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -19061,7 +19061,7 @@
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19146,7 @@
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -19180,7 +19180,7 @@
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -19197,7 +19197,7 @@
       </c>
       <c r="C1104" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -19214,7 +19214,7 @@
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -19231,7 +19231,7 @@
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -19248,7 +19248,7 @@
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -19367,7 +19367,7 @@
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -19401,7 +19401,7 @@
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -19418,7 +19418,7 @@
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -19452,7 +19452,7 @@
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -19537,7 +19537,7 @@
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -19571,7 +19571,7 @@
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -19588,7 +19588,7 @@
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -19707,7 +19707,7 @@
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -19724,7 +19724,7 @@
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -19843,7 +19843,7 @@
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -19911,7 +19911,7 @@
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -19979,7 +19979,7 @@
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -20047,7 +20047,7 @@
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -20081,7 +20081,7 @@
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -20149,7 +20149,7 @@
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -20166,7 +20166,7 @@
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -20302,7 +20302,7 @@
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -20319,7 +20319,7 @@
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -20336,7 +20336,7 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -20387,7 +20387,7 @@
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -20404,7 +20404,7 @@
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -20438,7 +20438,7 @@
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -20489,7 +20489,7 @@
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -20506,7 +20506,7 @@
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -20540,7 +20540,7 @@
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -20557,7 +20557,7 @@
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -20608,7 +20608,7 @@
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -20659,7 +20659,7 @@
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -20812,7 +20812,7 @@
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -20880,7 +20880,7 @@
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -20914,7 +20914,7 @@
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -21016,7 +21016,7 @@
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -21050,7 +21050,7 @@
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -21067,7 +21067,7 @@
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -21118,7 +21118,7 @@
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -21152,7 +21152,7 @@
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -21169,7 +21169,7 @@
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -21220,7 +21220,7 @@
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -21288,7 +21288,7 @@
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -21305,7 +21305,7 @@
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -21322,7 +21322,7 @@
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -21339,7 +21339,7 @@
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -21356,7 +21356,7 @@
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -21458,7 +21458,7 @@
       </c>
       <c r="C1237" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -21492,7 +21492,7 @@
       </c>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -21560,7 +21560,7 @@
       </c>
       <c r="C1243" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -21628,7 +21628,7 @@
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21662,7 @@
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -21730,7 +21730,7 @@
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -21764,7 +21764,7 @@
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -21798,7 +21798,7 @@
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -21832,7 +21832,7 @@
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -21866,7 +21866,7 @@
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -21883,7 +21883,7 @@
       </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -21934,7 +21934,7 @@
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -22053,7 +22053,7 @@
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -22070,7 +22070,7 @@
       </c>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -22087,7 +22087,7 @@
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -22121,7 +22121,7 @@
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -22172,7 +22172,7 @@
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -22189,7 +22189,7 @@
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -22240,7 +22240,7 @@
       </c>
       <c r="C1283" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -22257,7 +22257,7 @@
       </c>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -22274,7 +22274,7 @@
       </c>
       <c r="C1285" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -22325,7 +22325,7 @@
       </c>
       <c r="C1288" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -22376,7 +22376,7 @@
       </c>
       <c r="C1291" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -22410,7 +22410,7 @@
       </c>
       <c r="C1293" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -22427,7 +22427,7 @@
       </c>
       <c r="C1294" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -22478,7 +22478,7 @@
       </c>
       <c r="C1297" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -22495,7 +22495,7 @@
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -22529,7 +22529,7 @@
       </c>
       <c r="C1300" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -22546,7 +22546,7 @@
       </c>
       <c r="C1301" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -22631,7 +22631,7 @@
       </c>
       <c r="C1306" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -22665,7 +22665,7 @@
       </c>
       <c r="C1308" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -22682,7 +22682,7 @@
       </c>
       <c r="C1309" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -22716,7 +22716,7 @@
       </c>
       <c r="C1311" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -22750,7 +22750,7 @@
       </c>
       <c r="C1313" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -22784,7 +22784,7 @@
       </c>
       <c r="C1315" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="C1318" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -22886,7 +22886,7 @@
       </c>
       <c r="C1321" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -22903,7 +22903,7 @@
       </c>
       <c r="C1322" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       </c>
       <c r="C1323" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -22954,7 +22954,7 @@
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="C1328" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -23022,7 +23022,7 @@
       </c>
       <c r="C1329" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -23039,7 +23039,7 @@
       </c>
       <c r="C1330" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -23073,7 +23073,7 @@
       </c>
       <c r="C1332" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -23107,7 +23107,7 @@
       </c>
       <c r="C1334" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -23141,7 +23141,7 @@
       </c>
       <c r="C1336" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="C1338" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -23226,7 +23226,7 @@
       </c>
       <c r="C1341" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -23243,7 +23243,7 @@
       </c>
       <c r="C1342" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -23277,7 +23277,7 @@
       </c>
       <c r="C1344" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -23311,7 +23311,7 @@
       </c>
       <c r="C1346" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -23430,7 +23430,7 @@
       </c>
       <c r="C1353" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -23464,7 +23464,7 @@
       </c>
       <c r="C1355" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -23617,7 +23617,7 @@
       </c>
       <c r="C1364" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -23634,7 +23634,7 @@
       </c>
       <c r="C1365" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -23668,7 +23668,7 @@
       </c>
       <c r="C1367" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -23719,7 +23719,7 @@
       </c>
       <c r="C1370" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -23753,7 +23753,7 @@
       </c>
       <c r="C1372" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -23787,7 +23787,7 @@
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -23838,7 +23838,7 @@
       </c>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -23872,7 +23872,7 @@
       </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -23889,7 +23889,7 @@
       </c>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -23906,7 +23906,7 @@
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -23923,7 +23923,7 @@
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -23940,7 +23940,7 @@
       </c>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -24059,7 +24059,7 @@
       </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -24093,7 +24093,7 @@
       </c>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -24161,7 +24161,7 @@
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -24178,7 +24178,7 @@
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -24280,7 +24280,7 @@
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -24297,7 +24297,7 @@
       </c>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -24314,7 +24314,7 @@
       </c>
       <c r="C1405" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -24348,7 +24348,7 @@
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -24467,7 +24467,7 @@
       </c>
       <c r="C1414" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -24484,7 +24484,7 @@
       </c>
       <c r="C1415" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -24501,7 +24501,7 @@
       </c>
       <c r="C1416" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -24586,7 +24586,7 @@
       </c>
       <c r="C1421" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -24603,7 +24603,7 @@
       </c>
       <c r="C1422" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -24790,7 +24790,7 @@
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -24807,7 +24807,7 @@
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -24892,7 +24892,7 @@
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -24943,7 +24943,7 @@
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -24977,7 +24977,7 @@
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -25011,7 +25011,7 @@
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -25096,7 +25096,7 @@
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -25181,7 +25181,7 @@
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -25232,7 +25232,7 @@
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -25249,7 +25249,7 @@
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -25300,7 +25300,7 @@
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -25334,7 +25334,7 @@
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -25368,7 +25368,7 @@
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -25419,7 +25419,7 @@
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -25453,7 +25453,7 @@
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -25487,7 +25487,7 @@
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -25521,7 +25521,7 @@
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -25606,7 +25606,7 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -25623,7 +25623,7 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -25657,7 +25657,7 @@
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -25674,7 +25674,7 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -25759,7 +25759,7 @@
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -25776,7 +25776,7 @@
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -25793,7 +25793,7 @@
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -25827,7 +25827,7 @@
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -25844,7 +25844,7 @@
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -25861,7 +25861,7 @@
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -25997,7 +25997,7 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -26082,7 +26082,7 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -26099,7 +26099,7 @@
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -26116,7 +26116,7 @@
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -26184,7 +26184,7 @@
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -26201,7 +26201,7 @@
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -26269,7 +26269,7 @@
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -26286,7 +26286,7 @@
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -26303,7 +26303,7 @@
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -26320,7 +26320,7 @@
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -26337,7 +26337,7 @@
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -26405,7 +26405,7 @@
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -26422,7 +26422,7 @@
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -26439,7 +26439,7 @@
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -26473,7 +26473,7 @@
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -26558,7 +26558,7 @@
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -26626,7 +26626,7 @@
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -26677,7 +26677,7 @@
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -26711,7 +26711,7 @@
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -26728,7 +26728,7 @@
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -26796,7 +26796,7 @@
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -26813,7 +26813,7 @@
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -26830,7 +26830,7 @@
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -26881,7 +26881,7 @@
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -26898,7 +26898,7 @@
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -26915,7 +26915,7 @@
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -27085,7 +27085,7 @@
       </c>
       <c r="C1568" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -27119,7 +27119,7 @@
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -27136,7 +27136,7 @@
       </c>
       <c r="C1571" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -27153,7 +27153,7 @@
       </c>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -27255,7 +27255,7 @@
       </c>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -27306,7 +27306,7 @@
       </c>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -27357,7 +27357,7 @@
       </c>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -27442,7 +27442,7 @@
       </c>
       <c r="C1589" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -27459,7 +27459,7 @@
       </c>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -27476,7 +27476,7 @@
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -27510,7 +27510,7 @@
       </c>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -27527,7 +27527,7 @@
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -27544,7 +27544,7 @@
       </c>
       <c r="C1595" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -27561,7 +27561,7 @@
       </c>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -27612,7 +27612,7 @@
       </c>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -27629,7 +27629,7 @@
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -27646,7 +27646,7 @@
       </c>
       <c r="C1601" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -27663,7 +27663,7 @@
       </c>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -27680,7 +27680,7 @@
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -27697,7 +27697,7 @@
       </c>
       <c r="C1604" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -27714,7 +27714,7 @@
       </c>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -27748,7 +27748,7 @@
       </c>
       <c r="C1607" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -27765,7 +27765,7 @@
       </c>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -27816,7 +27816,7 @@
       </c>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -27833,7 +27833,7 @@
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -27850,7 +27850,7 @@
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -27901,7 +27901,7 @@
       </c>
       <c r="C1616" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -27918,7 +27918,7 @@
       </c>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -27935,7 +27935,7 @@
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -27986,7 +27986,7 @@
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -28037,7 +28037,7 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -28105,7 +28105,7 @@
       </c>
       <c r="C1628" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -28139,7 +28139,7 @@
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -28190,7 +28190,7 @@
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -28258,7 +28258,7 @@
       </c>
       <c r="C1637" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -28360,7 +28360,7 @@
       </c>
       <c r="C1643" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -28377,7 +28377,7 @@
       </c>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -28411,7 +28411,7 @@
       </c>
       <c r="C1646" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -28445,7 +28445,7 @@
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -28479,7 +28479,7 @@
       </c>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -28530,7 +28530,7 @@
       </c>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -28581,7 +28581,7 @@
       </c>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -28598,7 +28598,7 @@
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -28615,7 +28615,7 @@
       </c>
       <c r="C1658" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -28632,7 +28632,7 @@
       </c>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -28768,7 +28768,7 @@
       </c>
       <c r="C1667" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -28785,7 +28785,7 @@
       </c>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -28836,7 +28836,7 @@
       </c>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -28870,7 +28870,7 @@
       </c>
       <c r="C1673" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -28887,7 +28887,7 @@
       </c>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -28938,7 +28938,7 @@
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -29006,7 +29006,7 @@
       </c>
       <c r="C1681" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -29040,7 +29040,7 @@
       </c>
       <c r="C1683" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -29057,7 +29057,7 @@
       </c>
       <c r="C1684" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -29074,7 +29074,7 @@
       </c>
       <c r="C1685" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -29125,7 +29125,7 @@
       </c>
       <c r="C1688" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -29193,7 +29193,7 @@
       </c>
       <c r="C1692" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -29227,7 +29227,7 @@
       </c>
       <c r="C1694" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -29261,7 +29261,7 @@
       </c>
       <c r="C1696" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -29295,7 +29295,7 @@
       </c>
       <c r="C1698" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -29312,7 +29312,7 @@
       </c>
       <c r="C1699" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -29329,7 +29329,7 @@
       </c>
       <c r="C1700" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -29346,7 +29346,7 @@
       </c>
       <c r="C1701" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -29380,7 +29380,7 @@
       </c>
       <c r="C1703" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -29397,7 +29397,7 @@
       </c>
       <c r="C1704" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -29431,7 +29431,7 @@
       </c>
       <c r="C1706" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -29448,7 +29448,7 @@
       </c>
       <c r="C1707" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -29465,7 +29465,7 @@
       </c>
       <c r="C1708" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -29482,7 +29482,7 @@
       </c>
       <c r="C1709" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -29499,7 +29499,7 @@
       </c>
       <c r="C1710" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -29516,7 +29516,7 @@
       </c>
       <c r="C1711" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -29533,7 +29533,7 @@
       </c>
       <c r="C1712" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -29550,7 +29550,7 @@
       </c>
       <c r="C1713" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -29567,7 +29567,7 @@
       </c>
       <c r="C1714" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -29584,7 +29584,7 @@
       </c>
       <c r="C1715" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -29601,7 +29601,7 @@
       </c>
       <c r="C1716" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="C1719" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -29686,7 +29686,7 @@
       </c>
       <c r="C1721" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -29720,7 +29720,7 @@
       </c>
       <c r="C1723" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -29754,7 +29754,7 @@
       </c>
       <c r="C1725" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -29788,7 +29788,7 @@
       </c>
       <c r="C1727" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -29839,7 +29839,7 @@
       </c>
       <c r="C1730" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -29873,7 +29873,7 @@
       </c>
       <c r="C1732" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -29958,7 +29958,7 @@
       </c>
       <c r="C1737" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -29975,7 +29975,7 @@
       </c>
       <c r="C1738" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -29992,7 +29992,7 @@
       </c>
       <c r="C1739" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -30043,7 +30043,7 @@
       </c>
       <c r="C1742" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -30060,7 +30060,7 @@
       </c>
       <c r="C1743" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -30077,7 +30077,7 @@
       </c>
       <c r="C1744" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -30094,7 +30094,7 @@
       </c>
       <c r="C1745" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -30128,7 +30128,7 @@
       </c>
       <c r="C1747" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -30145,7 +30145,7 @@
       </c>
       <c r="C1748" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -30162,7 +30162,7 @@
       </c>
       <c r="C1749" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -30196,7 +30196,7 @@
       </c>
       <c r="C1751" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -30213,7 +30213,7 @@
       </c>
       <c r="C1752" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -30332,7 +30332,7 @@
       </c>
       <c r="C1759" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -30366,7 +30366,7 @@
       </c>
       <c r="C1761" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -30400,7 +30400,7 @@
       </c>
       <c r="C1763" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -30417,7 +30417,7 @@
       </c>
       <c r="C1764" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -30434,7 +30434,7 @@
       </c>
       <c r="C1765" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -30451,7 +30451,7 @@
       </c>
       <c r="C1766" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -30519,7 +30519,7 @@
       </c>
       <c r="C1770" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -30536,7 +30536,7 @@
       </c>
       <c r="C1771" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -30587,7 +30587,7 @@
       </c>
       <c r="C1774" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -30672,7 +30672,7 @@
       </c>
       <c r="C1779" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -30723,7 +30723,7 @@
       </c>
       <c r="C1782" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -30774,7 +30774,7 @@
       </c>
       <c r="C1785" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -30791,7 +30791,7 @@
       </c>
       <c r="C1786" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -30808,7 +30808,7 @@
       </c>
       <c r="C1787" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -30825,7 +30825,7 @@
       </c>
       <c r="C1788" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -30842,7 +30842,7 @@
       </c>
       <c r="C1789" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -30910,7 +30910,7 @@
       </c>
       <c r="C1793" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -30961,7 +30961,7 @@
       </c>
       <c r="C1796" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="C1798" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -31046,7 +31046,7 @@
       </c>
       <c r="C1801" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -31080,7 +31080,7 @@
       </c>
       <c r="C1803" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -31097,7 +31097,7 @@
       </c>
       <c r="C1804" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -31131,7 +31131,7 @@
       </c>
       <c r="C1806" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -31148,7 +31148,7 @@
       </c>
       <c r="C1807" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -31182,7 +31182,7 @@
       </c>
       <c r="C1809" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -31216,7 +31216,7 @@
       </c>
       <c r="C1811" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -31284,7 +31284,7 @@
       </c>
       <c r="C1815" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -31335,7 +31335,7 @@
       </c>
       <c r="C1818" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -31352,7 +31352,7 @@
       </c>
       <c r="C1819" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -31369,7 +31369,7 @@
       </c>
       <c r="C1820" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -31437,7 +31437,7 @@
       </c>
       <c r="C1824" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -31454,7 +31454,7 @@
       </c>
       <c r="C1825" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -31488,7 +31488,7 @@
       </c>
       <c r="C1827" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -31556,7 +31556,7 @@
       </c>
       <c r="C1831" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -31573,7 +31573,7 @@
       </c>
       <c r="C1832" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -31590,7 +31590,7 @@
       </c>
       <c r="C1833" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -31607,7 +31607,7 @@
       </c>
       <c r="C1834" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -31624,7 +31624,7 @@
       </c>
       <c r="C1835" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -31641,7 +31641,7 @@
       </c>
       <c r="C1836" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -31675,7 +31675,7 @@
       </c>
       <c r="C1838" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -31709,7 +31709,7 @@
       </c>
       <c r="C1840" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -31726,7 +31726,7 @@
       </c>
       <c r="C1841" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -31777,7 +31777,7 @@
       </c>
       <c r="C1844" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -31862,7 +31862,7 @@
       </c>
       <c r="C1849" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -31879,7 +31879,7 @@
       </c>
       <c r="C1850" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -31998,7 +31998,7 @@
       </c>
       <c r="C1857" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -32049,7 +32049,7 @@
       </c>
       <c r="C1860" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -32066,7 +32066,7 @@
       </c>
       <c r="C1861" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="C1863" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -32117,7 +32117,7 @@
       </c>
       <c r="C1864" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -32168,7 +32168,7 @@
       </c>
       <c r="C1867" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -32219,7 +32219,7 @@
       </c>
       <c r="C1870" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -32236,7 +32236,7 @@
       </c>
       <c r="C1871" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -32270,7 +32270,7 @@
       </c>
       <c r="C1873" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -32287,7 +32287,7 @@
       </c>
       <c r="C1874" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -32321,7 +32321,7 @@
       </c>
       <c r="C1876" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -32338,7 +32338,7 @@
       </c>
       <c r="C1877" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="C1878" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -32389,7 +32389,7 @@
       </c>
       <c r="C1880" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -32457,7 +32457,7 @@
       </c>
       <c r="C1884" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -32474,7 +32474,7 @@
       </c>
       <c r="C1885" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -32610,7 +32610,7 @@
       </c>
       <c r="C1893" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -32678,7 +32678,7 @@
       </c>
       <c r="C1897" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -32712,7 +32712,7 @@
       </c>
       <c r="C1899" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -32729,7 +32729,7 @@
       </c>
       <c r="C1900" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -32797,7 +32797,7 @@
       </c>
       <c r="C1904" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -32831,7 +32831,7 @@
       </c>
       <c r="C1906" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -32848,7 +32848,7 @@
       </c>
       <c r="C1907" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -32882,7 +32882,7 @@
       </c>
       <c r="C1909" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -32916,7 +32916,7 @@
       </c>
       <c r="C1911" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -32933,7 +32933,7 @@
       </c>
       <c r="C1912" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -32967,7 +32967,7 @@
       </c>
       <c r="C1914" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -32984,7 +32984,7 @@
       </c>
       <c r="C1915" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -33001,7 +33001,7 @@
       </c>
       <c r="C1916" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -33035,7 +33035,7 @@
       </c>
       <c r="C1918" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -33052,7 +33052,7 @@
       </c>
       <c r="C1919" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -33137,7 +33137,7 @@
       </c>
       <c r="C1924" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -33188,7 +33188,7 @@
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -33222,7 +33222,7 @@
       </c>
       <c r="C1929" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -33239,7 +33239,7 @@
       </c>
       <c r="C1930" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -33256,7 +33256,7 @@
       </c>
       <c r="C1931" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -33273,7 +33273,7 @@
       </c>
       <c r="C1932" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -33341,7 +33341,7 @@
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -33358,7 +33358,7 @@
       </c>
       <c r="C1937" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -33392,7 +33392,7 @@
       </c>
       <c r="C1939" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -33409,7 +33409,7 @@
       </c>
       <c r="C1940" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -33426,7 +33426,7 @@
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -33443,7 +33443,7 @@
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -33460,7 +33460,7 @@
       </c>
       <c r="C1943" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -33528,7 +33528,7 @@
       </c>
       <c r="C1947" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -33545,7 +33545,7 @@
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -33562,7 +33562,7 @@
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -33630,7 +33630,7 @@
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -33664,7 +33664,7 @@
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V10</t>
         </is>
       </c>
     </row>
@@ -33698,7 +33698,7 @@
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -33749,7 +33749,7 @@
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -33783,7 +33783,7 @@
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -33800,7 +33800,7 @@
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -33817,7 +33817,7 @@
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -33834,7 +33834,7 @@
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -33851,7 +33851,7 @@
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -33885,7 +33885,7 @@
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -33919,7 +33919,7 @@
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -33936,7 +33936,7 @@
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -33953,7 +33953,7 @@
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -33970,7 +33970,7 @@
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -34004,7 +34004,7 @@
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -34038,7 +34038,7 @@
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -34055,7 +34055,7 @@
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -34072,7 +34072,7 @@
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -34089,7 +34089,7 @@
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -34123,7 +34123,7 @@
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V4</t>
         </is>
       </c>
     </row>
@@ -34140,7 +34140,7 @@
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -34157,7 +34157,7 @@
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -34174,7 +34174,7 @@
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -34191,7 +34191,7 @@
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -34361,7 +34361,7 @@
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -34446,7 +34446,7 @@
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -34480,7 +34480,7 @@
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -34497,7 +34497,7 @@
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -34531,7 +34531,7 @@
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -34565,7 +34565,7 @@
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -34633,7 +34633,7 @@
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -34701,7 +34701,7 @@
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -34735,7 +34735,7 @@
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -34752,7 +34752,7 @@
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -34820,7 +34820,7 @@
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -34854,7 +34854,7 @@
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -34871,7 +34871,7 @@
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -34973,7 +34973,7 @@
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -35041,7 +35041,7 @@
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -35177,7 +35177,7 @@
       </c>
       <c r="C2044" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -35296,7 +35296,7 @@
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -35330,7 +35330,7 @@
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -35364,7 +35364,7 @@
       </c>
       <c r="C2055" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -35415,7 +35415,7 @@
       </c>
       <c r="C2058" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -35432,7 +35432,7 @@
       </c>
       <c r="C2059" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
@@ -35449,7 +35449,7 @@
       </c>
       <c r="C2060" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
@@ -35483,7 +35483,7 @@
       </c>
       <c r="C2062" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -35500,7 +35500,7 @@
       </c>
       <c r="C2063" t="inlineStr">
         <is>
-          <t>V5</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -35517,7 +35517,7 @@
       </c>
       <c r="C2064" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -35551,7 +35551,7 @@
       </c>
       <c r="C2066" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V9</t>
         </is>
       </c>
     </row>
@@ -35670,7 +35670,7 @@
       </c>
       <c r="C2073" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -35704,7 +35704,7 @@
       </c>
       <c r="C2075" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
@@ -35755,7 +35755,7 @@
       </c>
       <c r="C2078" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V5</t>
         </is>
       </c>
     </row>
